--- a/medicine/Enfance/Serge_Perez/Serge_Perez.xlsx
+++ b/medicine/Enfance/Serge_Perez/Serge_Perez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serge Perez (né en 1964 à Dax) est un auteur français de littérature de jeunesse.
 </t>
@@ -513,17 +525,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>À L'École des loisirs
-Les Oreilles en pointe, 1995
+          <t>À L'École des loisirs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les Oreilles en pointe, 1995
 J'aime pas mourir, 1996
 Comme des adieux, 1997
 La Pluie comme elle tombe, 1998
 Love, 1999
 Rouge Baleine, 2000
 Rouge Baleine, 2017, version révisée, epub.
-Deux étoiles bleues, 2001
-Chez Actes Sud
-Dommage pour moi, 2000, Actes Sud - 2007 Babel J</t>
+Deux étoiles bleues, 2001</t>
         </is>
       </c>
     </row>
@@ -548,10 +563,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chez Actes Sud</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dommage pour moi, 2000, Actes Sud - 2007 Babel J</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Serge_Perez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Serge_Perez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rouge Baleine, par la compagine AK Entrepot</t>
         </is>
